--- a/REGULAR/ONT/HAPITA, MELANIE.xlsx
+++ b/REGULAR/ONT/HAPITA, MELANIE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="235">
   <si>
     <t>PERIOD</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>UT(0-0-42)</t>
+  </si>
+  <si>
+    <t>10/17-31/2023</t>
   </si>
 </sst>
 </file>
@@ -1777,9 +1780,9 @@
   <dimension ref="A2:K383"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A316" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A334" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="F332" sqref="F332"/>
+      <selection pane="bottomLeft" activeCell="K349" sqref="K349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1949,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.649000000000001</v>
+        <v>17.899000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1956,7 +1959,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.25</v>
+        <v>42.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9544,15 +9547,17 @@
       <c r="B344" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C344" s="13"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="38">
         <v>5</v>
       </c>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H344" s="38"/>
       <c r="I344" s="9"/>
@@ -9566,13 +9571,15 @@
         <v>45078</v>
       </c>
       <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="38"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H345" s="38"/>
       <c r="I345" s="9"/>
@@ -9584,13 +9591,15 @@
         <v>45108</v>
       </c>
       <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D346" s="38"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H346" s="38"/>
       <c r="I346" s="9"/>
@@ -9602,13 +9611,15 @@
         <v>45139</v>
       </c>
       <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D347" s="38"/>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H347" s="38"/>
       <c r="I347" s="9"/>
@@ -9620,13 +9631,15 @@
         <v>45170</v>
       </c>
       <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D348" s="38"/>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H348" s="38"/>
       <c r="I348" s="9"/>
@@ -9637,9 +9650,13 @@
       <c r="A349" s="39">
         <v>45200</v>
       </c>
-      <c r="B349" s="20"/>
+      <c r="B349" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="C349" s="13"/>
-      <c r="D349" s="38"/>
+      <c r="D349" s="38">
+        <v>10</v>
+      </c>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -9649,7 +9666,9 @@
       <c r="H349" s="38"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
-      <c r="K349" s="20"/>
+      <c r="K349" s="20" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
